--- a/data/trans_orig/P20D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{883E8F3B-DD2B-468D-8938-01CBD995CF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0C919AC-0CF6-4B73-B209-B3E87F851980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AEDED39A-AF30-440C-BC9F-A93847B8DF79}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD747221-BC61-47CC-BE75-27587437C4E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>19,47%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
   </si>
   <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
   </si>
   <si>
     <t>24,74%</t>
   </si>
   <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
@@ -104,28 +104,28 @@
     <t>26,63%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>19,37%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
   </si>
   <si>
     <t>Sí, todo o casi todo el tiempo</t>
@@ -134,28 +134,28 @@
     <t>53,9%</t>
   </si>
   <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
   </si>
   <si>
     <t>55,89%</t>
   </si>
   <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,46 +167,46 @@
     <t>16,05%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
   </si>
   <si>
     <t>51,63%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
   <si>
     <t>10,56%</t>
@@ -215,16 +215,16 @@
     <t>5,15%</t>
   </si>
   <si>
-    <t>18,98%</t>
+    <t>19,65%</t>
   </si>
   <si>
     <t>75,27%</t>
   </si>
   <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>35,71%</t>
@@ -233,7 +233,7 @@
     <t>19,95%</t>
   </si>
   <si>
-    <t>58,93%</t>
+    <t>59,19%</t>
   </si>
   <si>
     <t>56,54%</t>
@@ -242,7 +242,7 @@
     <t>44,1%</t>
   </si>
   <si>
-    <t>67,64%</t>
+    <t>68,58%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -254,25 +254,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>48,06%</t>
+    <t>41,84%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>40,6%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>0%</t>
@@ -284,19 +284,19 @@
     <t>5,34%</t>
   </si>
   <si>
-    <t>23,35%</t>
+    <t>26,98%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>14,17%</t>
+    <t>10,79%</t>
   </si>
   <si>
     <t>90,35%</t>
   </si>
   <si>
-    <t>51,94%</t>
+    <t>58,16%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -305,100 +305,100 @@
     <t>12,32%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
   </si>
   <si>
     <t>57,12%</t>
   </si>
   <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>51,0%</t>
   </si>
   <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>56,44%</t>
   </si>
   <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7D62FE-9D19-4B9B-B080-4F3AC9A9A7FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E850B1-704F-43C7-BABE-16CD7E3ECBDC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0C919AC-0CF6-4B73-B209-B3E87F851980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBC6C52E-FD0B-4B0F-8BB9-A9C25D6EF0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD747221-BC61-47CC-BE75-27587437C4E4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17B7F42A-2328-4286-8936-9ECB4A9BBB50}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E850B1-704F-43C7-BABE-16CD7E3ECBDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5ED88F-BA58-4320-AAB5-07B857DA3F03}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBC6C52E-FD0B-4B0F-8BB9-A9C25D6EF0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF398266-8778-4D10-B1EB-BC90A9D91571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17B7F42A-2328-4286-8936-9ECB4A9BBB50}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0750034B-4BD3-4202-A90F-02C78D629DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>19,47%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
   </si>
   <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
   </si>
   <si>
     <t>24,74%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
@@ -104,28 +104,28 @@
     <t>26,63%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
   </si>
   <si>
     <t>19,37%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
   </si>
   <si>
     <t>Sí, todo o casi todo el tiempo</t>
@@ -134,28 +134,28 @@
     <t>53,9%</t>
   </si>
   <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
   </si>
   <si>
     <t>55,89%</t>
   </si>
   <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,46 +167,46 @@
     <t>16,05%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
   <si>
     <t>51,63%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
   </si>
   <si>
     <t>10,56%</t>
@@ -215,16 +215,16 @@
     <t>5,15%</t>
   </si>
   <si>
-    <t>19,65%</t>
+    <t>18,98%</t>
   </si>
   <si>
     <t>75,27%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>35,71%</t>
@@ -233,46 +233,46 @@
     <t>19,95%</t>
   </si>
   <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
     <t>59,19%</t>
   </si>
   <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>95,33%</t>
   </si>
   <si>
     <t>40,6%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
   </si>
   <si>
     <t>0%</t>
@@ -284,19 +284,19 @@
     <t>5,34%</t>
   </si>
   <si>
-    <t>26,98%</t>
+    <t>23,35%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>10,79%</t>
+    <t>14,17%</t>
   </si>
   <si>
     <t>90,35%</t>
   </si>
   <si>
-    <t>58,16%</t>
+    <t>51,94%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -305,100 +305,100 @@
     <t>12,32%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
   </si>
   <si>
     <t>57,12%</t>
   </si>
   <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
   </si>
   <si>
     <t>51,0%</t>
   </si>
   <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
   <si>
     <t>56,44%</t>
   </si>
   <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5ED88F-BA58-4320-AAB5-07B857DA3F03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A07E12-2E5A-45C5-82DF-8C88E8493BB3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF398266-8778-4D10-B1EB-BC90A9D91571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{132DC04A-FCA0-466F-B0C1-541BDF2E9D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0750034B-4BD3-4202-A90F-02C78D629DDF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D9836B58-96C8-44C9-88AC-359EEE50C512}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,91 +71,91 @@
     <t>No</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
   </si>
   <si>
     <t>Sí, todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,241 +164,241 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A07E12-2E5A-45C5-82DF-8C88E8493BB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9135F77F-954E-4515-A751-086BC6C7194A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>3887</v>
+        <v>3647</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>4671</v>
+        <v>4338</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -964,7 +964,7 @@
         <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>8558</v>
+        <v>7985</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -985,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>5318</v>
+        <v>5185</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1000,7 +1000,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>1382</v>
+        <v>1293</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1015,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>6700</v>
+        <v>6478</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1036,7 +1036,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>10764</v>
+        <v>9913</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1051,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>8566</v>
+        <v>7866</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1066,7 +1066,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="7">
-        <v>19330</v>
+        <v>17779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1087,7 +1087,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>19969</v>
+        <v>18745</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1102,7 +1102,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>14619</v>
+        <v>13497</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1117,7 +1117,7 @@
         <v>53</v>
       </c>
       <c r="N7" s="7">
-        <v>34588</v>
+        <v>32242</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1140,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>5474</v>
+        <v>5503</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1155,7 +1155,7 @@
         <v>23</v>
       </c>
       <c r="I8" s="7">
-        <v>15834</v>
+        <v>14780</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1170,7 +1170,7 @@
         <v>29</v>
       </c>
       <c r="N8" s="7">
-        <v>21308</v>
+        <v>20283</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1191,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>2959</v>
+        <v>2945</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1206,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>3882</v>
+        <v>3597</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1221,7 +1221,7 @@
         <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>6840</v>
+        <v>6542</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1242,7 +1242,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>25667</v>
+        <v>24371</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1257,7 +1257,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>10951</v>
+        <v>10114</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1272,7 +1272,7 @@
         <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>36618</v>
+        <v>34486</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1293,7 +1293,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>34100</v>
+        <v>32819</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1308,7 +1308,7 @@
         <v>43</v>
       </c>
       <c r="I11" s="7">
-        <v>30667</v>
+        <v>28491</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1323,7 +1323,7 @@
         <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>64767</v>
+        <v>61311</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1076</v>
+        <v>1034</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1361,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>6811</v>
+        <v>6236</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1376,7 +1376,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>7887</v>
+        <v>7270</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>81</v>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>83</v>
@@ -1448,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>10077</v>
+        <v>9678</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>85</v>
@@ -1463,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>1020</v>
+        <v>985</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>88</v>
@@ -1478,7 +1478,7 @@
         <v>14</v>
       </c>
       <c r="N14" s="7">
-        <v>11097</v>
+        <v>10663</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>91</v>
@@ -1499,7 +1499,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="7">
-        <v>11153</v>
+        <v>10712</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1514,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="7">
-        <v>8273</v>
+        <v>7689</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1529,7 +1529,7 @@
         <v>26</v>
       </c>
       <c r="N15" s="7">
-        <v>19426</v>
+        <v>18401</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1552,7 +1552,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>10438</v>
+        <v>10184</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>94</v>
@@ -1567,7 +1567,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="7">
-        <v>27316</v>
+        <v>25354</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>97</v>
@@ -1582,7 +1582,7 @@
         <v>53</v>
       </c>
       <c r="N16" s="7">
-        <v>37754</v>
+        <v>35538</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>100</v>
@@ -1603,7 +1603,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>8277</v>
+        <v>8130</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>103</v>
@@ -1618,7 +1618,7 @@
         <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>5705</v>
+        <v>5358</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>106</v>
@@ -1633,7 +1633,7 @@
         <v>20</v>
       </c>
       <c r="N17" s="7">
-        <v>13983</v>
+        <v>13488</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>109</v>
@@ -1654,7 +1654,7 @@
         <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>46508</v>
+        <v>43963</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>112</v>
@@ -1669,7 +1669,7 @@
         <v>32</v>
       </c>
       <c r="I18" s="7">
-        <v>20536</v>
+        <v>18966</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>115</v>
@@ -1684,7 +1684,7 @@
         <v>88</v>
       </c>
       <c r="N18" s="7">
-        <v>67044</v>
+        <v>62928</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>118</v>
@@ -1705,7 +1705,7 @@
         <v>77</v>
       </c>
       <c r="D19" s="7">
-        <v>65223</v>
+        <v>62277</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1720,7 +1720,7 @@
         <v>84</v>
       </c>
       <c r="I19" s="7">
-        <v>53558</v>
+        <v>49677</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1735,7 +1735,7 @@
         <v>161</v>
       </c>
       <c r="N19" s="7">
-        <v>118781</v>
+        <v>111954</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
